--- a/JupyterNotebooks/AveragedIntensities-SRP/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/ShearF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -572,7 +593,7 @@
         <v>0.8747694524495677</v>
       </c>
       <c r="D3">
-        <v>1.454207492795389</v>
+        <v>1.454193083573487</v>
       </c>
       <c r="E3">
         <v>0.9079466858789625</v>
@@ -581,7 +602,7 @@
         <v>0.8747694524495677</v>
       </c>
       <c r="G3">
-        <v>1.205093659942363</v>
+        <v>1.205108069164265</v>
       </c>
       <c r="H3">
         <v>0.8147046109510087</v>
@@ -590,37 +611,40 @@
         <v>0.9002881844380404</v>
       </c>
       <c r="J3">
-        <v>1.454207492795389</v>
+        <v>1.454193083573487</v>
       </c>
       <c r="K3">
         <v>0.8747694524495677</v>
       </c>
       <c r="L3">
-        <v>1.181077089337176</v>
+        <v>0.9079466858789625</v>
       </c>
       <c r="M3">
-        <v>1.181077089337176</v>
+        <v>1.181069884726225</v>
       </c>
       <c r="N3">
+        <v>1.181069884726225</v>
+      </c>
+      <c r="O3">
         <v>1.189082612872238</v>
       </c>
-      <c r="O3">
-        <v>1.078974543707973</v>
-      </c>
       <c r="P3">
-        <v>1.078974543707973</v>
+        <v>1.078969740634006</v>
       </c>
       <c r="Q3">
-        <v>1.027923270893372</v>
+        <v>1.078969740634006</v>
       </c>
       <c r="R3">
-        <v>1.027923270893372</v>
+        <v>1.027919668587896</v>
       </c>
       <c r="S3">
+        <v>1.027919668587896</v>
+      </c>
+      <c r="T3">
         <v>1.026168347742555</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -631,16 +655,16 @@
         <v>1.001182957169914</v>
       </c>
       <c r="D4">
-        <v>1.031615276728604</v>
+        <v>1.031606028173691</v>
       </c>
       <c r="E4">
-        <v>0.9859264713568435</v>
+        <v>0.9859253525800393</v>
       </c>
       <c r="F4">
         <v>1.001182957169914</v>
       </c>
       <c r="G4">
-        <v>1.020374079289509</v>
+        <v>1.020400320728437</v>
       </c>
       <c r="H4">
         <v>0.9669026506849544</v>
@@ -649,37 +673,40 @@
         <v>0.9891288980530828</v>
       </c>
       <c r="J4">
-        <v>1.031615276728604</v>
+        <v>1.031606028173691</v>
       </c>
       <c r="K4">
         <v>1.001182957169914</v>
       </c>
       <c r="L4">
-        <v>1.008770874042724</v>
+        <v>0.9859253525800393</v>
       </c>
       <c r="M4">
-        <v>1.008770874042724</v>
+        <v>1.008765690376865</v>
       </c>
       <c r="N4">
-        <v>1.012638609124985</v>
+        <v>1.008765690376865</v>
       </c>
       <c r="O4">
-        <v>1.006241568418454</v>
+        <v>1.012643900494056</v>
       </c>
       <c r="P4">
-        <v>1.006241568418454</v>
+        <v>1.006238112641215</v>
       </c>
       <c r="Q4">
-        <v>1.004976915606319</v>
+        <v>1.006238112641215</v>
       </c>
       <c r="R4">
-        <v>1.004976915606319</v>
+        <v>1.004974323773389</v>
       </c>
       <c r="S4">
-        <v>0.9991883888804846</v>
+        <v>1.004974323773389</v>
+      </c>
+      <c r="T4">
+        <v>0.9991910345650195</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -690,16 +717,16 @@
         <v>1.000691802410844</v>
       </c>
       <c r="D5">
-        <v>1.067096840466994</v>
+        <v>1.067089350973977</v>
       </c>
       <c r="E5">
-        <v>0.9746877909581907</v>
+        <v>0.9746891335022879</v>
       </c>
       <c r="F5">
         <v>1.000691802410844</v>
       </c>
       <c r="G5">
-        <v>1.038155579748441</v>
+        <v>1.038162864086206</v>
       </c>
       <c r="H5">
         <v>0.9421816470371488</v>
@@ -708,37 +735,40 @@
         <v>0.9804462722142541</v>
       </c>
       <c r="J5">
-        <v>1.067096840466994</v>
+        <v>1.067089350973977</v>
       </c>
       <c r="K5">
         <v>1.000691802410844</v>
       </c>
       <c r="L5">
-        <v>1.020892315712592</v>
+        <v>0.9746891335022879</v>
       </c>
       <c r="M5">
-        <v>1.020892315712592</v>
+        <v>1.020889242238133</v>
       </c>
       <c r="N5">
-        <v>1.026646737057875</v>
+        <v>1.020889242238133</v>
       </c>
       <c r="O5">
-        <v>1.014158811278676</v>
+        <v>1.026647116187491</v>
       </c>
       <c r="P5">
-        <v>1.014158811278676</v>
+        <v>1.014156762295703</v>
       </c>
       <c r="Q5">
-        <v>1.010792059061718</v>
+        <v>1.014156762295703</v>
       </c>
       <c r="R5">
-        <v>1.010792059061718</v>
+        <v>1.010790522324488</v>
       </c>
       <c r="S5">
-        <v>1.000543322139312</v>
+        <v>1.010790522324488</v>
+      </c>
+      <c r="T5">
+        <v>1.00054351170412</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000472953097219</v>
+        <v>1.000442850045242</v>
       </c>
       <c r="D6">
-        <v>1.003632443041115</v>
+        <v>1.003541074567079</v>
       </c>
       <c r="E6">
-        <v>0.9962673875308673</v>
+        <v>0.9962753352298301</v>
       </c>
       <c r="F6">
-        <v>1.000472953097219</v>
+        <v>1.000442850045242</v>
       </c>
       <c r="G6">
-        <v>1.004040466600785</v>
+        <v>1.004055517729376</v>
       </c>
       <c r="H6">
         <v>0.9920574577954471</v>
       </c>
       <c r="I6">
-        <v>0.9966445979687675</v>
+        <v>0.9966492098808337</v>
       </c>
       <c r="J6">
-        <v>1.003632443041115</v>
+        <v>1.003541074567079</v>
       </c>
       <c r="K6">
-        <v>1.000472953097219</v>
+        <v>1.000442850045242</v>
       </c>
       <c r="L6">
-        <v>0.999949915285991</v>
+        <v>0.9962753352298301</v>
       </c>
       <c r="M6">
-        <v>0.999949915285991</v>
+        <v>0.9999082048984543</v>
       </c>
       <c r="N6">
-        <v>1.001313432390922</v>
+        <v>0.9999082048984543</v>
       </c>
       <c r="O6">
-        <v>1.000124261223067</v>
+        <v>1.001290642508762</v>
       </c>
       <c r="P6">
-        <v>1.000124261223067</v>
+        <v>1.000086419947383</v>
       </c>
       <c r="Q6">
-        <v>1.000211434191605</v>
+        <v>1.000086419947383</v>
       </c>
       <c r="R6">
-        <v>1.000211434191605</v>
+        <v>1.000175527471848</v>
       </c>
       <c r="S6">
-        <v>0.9988525510057001</v>
+        <v>1.000175527471848</v>
+      </c>
+      <c r="T6">
+        <v>0.9988369075413012</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002369906619044</v>
+        <v>0.9332796427049089</v>
       </c>
       <c r="D7">
-        <v>0.9968323812379526</v>
+        <v>0.6333498387847655</v>
       </c>
       <c r="E7">
-        <v>0.9974942986440674</v>
+        <v>1.152669113387436</v>
       </c>
       <c r="F7">
-        <v>1.002369906619044</v>
+        <v>0.9332796427049089</v>
       </c>
       <c r="G7">
-        <v>1.001377398684538</v>
+        <v>0.7801607944932417</v>
       </c>
       <c r="H7">
+        <v>1.381088329832274</v>
+      </c>
+      <c r="I7">
+        <v>1.100033361473656</v>
+      </c>
+      <c r="J7">
+        <v>0.6333498387847655</v>
+      </c>
+      <c r="K7">
+        <v>0.9332796427049089</v>
+      </c>
+      <c r="L7">
+        <v>1.152669113387436</v>
+      </c>
+      <c r="M7">
+        <v>0.8930094760861007</v>
+      </c>
+      <c r="N7">
+        <v>0.8930094760861007</v>
+      </c>
+      <c r="O7">
+        <v>0.8553932488884811</v>
+      </c>
+      <c r="P7">
+        <v>0.9064328649590369</v>
+      </c>
+      <c r="Q7">
+        <v>0.9064328649590369</v>
+      </c>
+      <c r="R7">
+        <v>0.9131445593955049</v>
+      </c>
+      <c r="S7">
+        <v>0.9131445593955049</v>
+      </c>
+      <c r="T7">
+        <v>0.9967635134460471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1.086653469207015</v>
+      </c>
+      <c r="D8">
+        <v>0.9567202609261728</v>
+      </c>
+      <c r="E8">
+        <v>0.9763734293121109</v>
+      </c>
+      <c r="F8">
+        <v>1.086653469207015</v>
+      </c>
+      <c r="G8">
+        <v>0.9411816457068815</v>
+      </c>
+      <c r="H8">
+        <v>1.042640409755742</v>
+      </c>
+      <c r="I8">
+        <v>1.019104899293642</v>
+      </c>
+      <c r="J8">
+        <v>0.9567202609261728</v>
+      </c>
+      <c r="K8">
+        <v>1.086653469207015</v>
+      </c>
+      <c r="L8">
+        <v>0.9763734293121109</v>
+      </c>
+      <c r="M8">
+        <v>0.9665468451191419</v>
+      </c>
+      <c r="N8">
+        <v>0.9665468451191419</v>
+      </c>
+      <c r="O8">
+        <v>0.9580917786483885</v>
+      </c>
+      <c r="P8">
+        <v>1.006582386481766</v>
+      </c>
+      <c r="Q8">
+        <v>1.006582386481766</v>
+      </c>
+      <c r="R8">
+        <v>1.026600157163078</v>
+      </c>
+      <c r="S8">
+        <v>1.026600157163078</v>
+      </c>
+      <c r="T8">
+        <v>1.003779019033594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.96</v>
+      </c>
+      <c r="D9">
+        <v>0.22</v>
+      </c>
+      <c r="E9">
+        <v>0.83</v>
+      </c>
+      <c r="F9">
+        <v>1.96</v>
+      </c>
+      <c r="G9">
+        <v>0.64</v>
+      </c>
+      <c r="H9">
+        <v>0.67</v>
+      </c>
+      <c r="I9">
+        <v>1.14</v>
+      </c>
+      <c r="J9">
+        <v>0.22</v>
+      </c>
+      <c r="K9">
+        <v>1.96</v>
+      </c>
+      <c r="L9">
+        <v>0.83</v>
+      </c>
+      <c r="M9">
+        <v>0.525</v>
+      </c>
+      <c r="N9">
+        <v>0.525</v>
+      </c>
+      <c r="O9">
+        <v>0.5633333333333334</v>
+      </c>
+      <c r="P9">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="Q9">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="R9">
+        <v>1.2425</v>
+      </c>
+      <c r="S9">
+        <v>1.2425</v>
+      </c>
+      <c r="T9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.96</v>
+      </c>
+      <c r="D10">
+        <v>0.22</v>
+      </c>
+      <c r="E10">
+        <v>0.83</v>
+      </c>
+      <c r="F10">
+        <v>1.96</v>
+      </c>
+      <c r="G10">
+        <v>0.64</v>
+      </c>
+      <c r="H10">
+        <v>0.67</v>
+      </c>
+      <c r="I10">
+        <v>1.14</v>
+      </c>
+      <c r="J10">
+        <v>0.22</v>
+      </c>
+      <c r="K10">
+        <v>1.96</v>
+      </c>
+      <c r="L10">
+        <v>0.83</v>
+      </c>
+      <c r="M10">
+        <v>0.525</v>
+      </c>
+      <c r="N10">
+        <v>0.525</v>
+      </c>
+      <c r="O10">
+        <v>0.5633333333333334</v>
+      </c>
+      <c r="P10">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="Q10">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="R10">
+        <v>1.2425</v>
+      </c>
+      <c r="S10">
+        <v>1.2425</v>
+      </c>
+      <c r="T10">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1.002371100218109</v>
+      </c>
+      <c r="D11">
+        <v>0.9967316088405344</v>
+      </c>
+      <c r="E11">
+        <v>0.9974939635453345</v>
+      </c>
+      <c r="F11">
+        <v>1.002371100218109</v>
+      </c>
+      <c r="G11">
+        <v>1.001314692633904</v>
+      </c>
+      <c r="H11">
         <v>0.9940111371242361</v>
       </c>
-      <c r="I7">
-        <v>0.997953970697804</v>
-      </c>
-      <c r="J7">
-        <v>0.9968323812379526</v>
-      </c>
-      <c r="K7">
-        <v>1.002369906619044</v>
-      </c>
-      <c r="L7">
-        <v>0.99716333994101</v>
-      </c>
-      <c r="M7">
-        <v>0.99716333994101</v>
-      </c>
-      <c r="N7">
-        <v>0.9985680261888527</v>
-      </c>
-      <c r="O7">
-        <v>0.9988988621670214</v>
-      </c>
-      <c r="P7">
-        <v>0.9988988621670214</v>
-      </c>
-      <c r="Q7">
-        <v>0.9997666232800271</v>
-      </c>
-      <c r="R7">
-        <v>0.9997666232800271</v>
-      </c>
-      <c r="S7">
-        <v>0.998339848834607</v>
+      <c r="I11">
+        <v>0.9979497643401086</v>
+      </c>
+      <c r="J11">
+        <v>0.9967316088405344</v>
+      </c>
+      <c r="K11">
+        <v>1.002371100218109</v>
+      </c>
+      <c r="L11">
+        <v>0.9974939635453345</v>
+      </c>
+      <c r="M11">
+        <v>0.9971127861929344</v>
+      </c>
+      <c r="N11">
+        <v>0.9971127861929344</v>
+      </c>
+      <c r="O11">
+        <v>0.9985134216732575</v>
+      </c>
+      <c r="P11">
+        <v>0.9988655575346592</v>
+      </c>
+      <c r="Q11">
+        <v>0.9988655575346592</v>
+      </c>
+      <c r="R11">
+        <v>0.9997419432055217</v>
+      </c>
+      <c r="S11">
+        <v>0.9997419432055217</v>
+      </c>
+      <c r="T11">
+        <v>0.9983120444503711</v>
       </c>
     </row>
   </sheetData>
